--- a/insurance_data.xlsx
+++ b/insurance_data.xlsx
@@ -1,22 +1,35 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24334"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\defaultuser100000\github_repos\workshops\data_analysis\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AndresMoreno\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A80C7A34-1DFD-4171-9372-7CB7D783C569}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DE1655F-4DF8-4657-98D3-587A6D34C256}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="insurance_data" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <pivotCaches>
+    <pivotCache cacheId="40" r:id="rId2"/>
+    <pivotCache cacheId="43" r:id="rId3"/>
+  </pivotCaches>
   <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
     <ext xmlns:xlwcv="http://schemas.microsoft.com/office/spreadsheetml/2024/workbookCompatibilityVersion" uri="{D14903EA-33C4-47F7-8F05-3474C54BE107}">
       <xlwcv:version setVersion="1"/>
     </ext>
@@ -25,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="24">
   <si>
     <t>Alter</t>
   </si>
@@ -46,9 +59,6 @@
   </si>
   <si>
     <t>Preise</t>
-  </si>
-  <si>
-    <t>weblich</t>
   </si>
   <si>
     <t>ja</t>
@@ -75,13 +85,37 @@
     <t>Nordost</t>
   </si>
   <si>
-    <t>hoch</t>
+    <t>durchschnitt</t>
+  </si>
+  <si>
+    <t>max</t>
+  </si>
+  <si>
+    <t>min</t>
+  </si>
+  <si>
+    <t>Row Labels</t>
+  </si>
+  <si>
+    <t>(blank)</t>
+  </si>
+  <si>
+    <t>Grand Total</t>
+  </si>
+  <si>
+    <t>Count of Raucher</t>
+  </si>
+  <si>
+    <t>Count of Region</t>
+  </si>
+  <si>
+    <t>raucher</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -559,8 +593,16 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -617,6 +659,434 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Andres Moreno" refreshedDate="45933.39252627315" createdVersion="7" refreshedVersion="7" minRefreshableVersion="3" recordCount="42" xr:uid="{61827633-9027-42DC-9A44-6F1B3B5F754B}">
+  <cacheSource type="worksheet">
+    <worksheetSource ref="E1:E1048576" sheet="insurance_data"/>
+  </cacheSource>
+  <cacheFields count="1">
+    <cacheField name="Raucher" numFmtId="0">
+      <sharedItems containsBlank="1" count="3">
+        <s v="ja"/>
+        <s v="nein"/>
+        <m/>
+      </sharedItems>
+    </cacheField>
+  </cacheFields>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
+      <x14:pivotCacheDefinition/>
+    </ext>
+  </extLst>
+</pivotCacheDefinition>
+</file>
+
+<file path=xl/pivotCache/pivotCacheDefinition2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Andres Moreno" refreshedDate="45933.392680439814" createdVersion="7" refreshedVersion="7" minRefreshableVersion="3" recordCount="42" xr:uid="{0811A19F-7764-4A92-A59F-B2AC62C2143A}">
+  <cacheSource type="worksheet">
+    <worksheetSource ref="F1:F1048576" sheet="insurance_data"/>
+  </cacheSource>
+  <cacheFields count="1">
+    <cacheField name="Region" numFmtId="0">
+      <sharedItems containsBlank="1" count="5">
+        <s v="Südwest"/>
+        <s v="Südost"/>
+        <s v="Nordwest"/>
+        <s v="Nordost"/>
+        <m/>
+      </sharedItems>
+    </cacheField>
+  </cacheFields>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
+      <x14:pivotCacheDefinition/>
+    </ext>
+  </extLst>
+</pivotCacheDefinition>
+</file>
+
+<file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="42">
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="2"/>
+  </r>
+</pivotCacheRecords>
+</file>
+
+<file path=xl/pivotCache/pivotCacheRecords2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="42">
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="4"/>
+  </r>
+</pivotCacheRecords>
+</file>
+
+<file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{ED0D50E5-81E0-42F4-AD7E-54447601A0FF}" name="PivotTable14" cacheId="43" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="I13:J19" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="1">
+    <pivotField axis="axisRow" dataField="1" showAll="0">
+      <items count="6">
+        <item x="3"/>
+        <item x="2"/>
+        <item x="1"/>
+        <item x="0"/>
+        <item x="4"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="0"/>
+  </rowFields>
+  <rowItems count="6">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Count of Region" fld="0" subtotal="count" baseField="0" baseItem="0"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{CCEEF80B-94E1-4FA3-A925-6B1B26D6E629}" name="PivotTable13" cacheId="40" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="I6:J10" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="1">
+    <pivotField axis="axisRow" dataField="1" showAll="0">
+      <items count="4">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="0"/>
+  </rowFields>
+  <rowItems count="4">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Count of Raucher" fld="0" subtotal="count" baseField="0" baseItem="0"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{BE85AA1D-F9FF-4F85-AE9A-C53E55B117AD}" name="Table1" displayName="Table1" ref="A1:G37" totalsRowShown="0">
+  <autoFilter ref="A1:G37" xr:uid="{BE85AA1D-F9FF-4F85-AE9A-C53E55B117AD}"/>
+  <tableColumns count="7">
+    <tableColumn id="1" xr3:uid="{989DE757-0127-493F-BFA9-F842990FED65}" name="Alter"/>
+    <tableColumn id="2" xr3:uid="{FF40649C-3411-4EED-8717-618CFE1529EF}" name="Geschlecht"/>
+    <tableColumn id="3" xr3:uid="{15EEBA52-B2C6-48BC-AE61-98B5E3DF8595}" name="BMI"/>
+    <tableColumn id="4" xr3:uid="{54BCACD2-6C73-4878-8467-982D651F01E4}" name="Kinder"/>
+    <tableColumn id="5" xr3:uid="{3BA0863A-515F-45A7-9BB0-01F713CAD9B5}" name="Raucher"/>
+    <tableColumn id="6" xr3:uid="{84003983-1D5D-4D8A-A6E0-A6C35C84BA46}" name="Region"/>
+    <tableColumn id="7" xr3:uid="{A295AF9C-C048-4AEF-8C13-679285F79D7F}" name="Preise"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -915,14 +1385,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G37"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:X41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N17" sqref="N17"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="12" customWidth="1"/>
+    <col min="5" max="5" width="9.77734375" customWidth="1"/>
+    <col min="9" max="9" width="12.5546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.6640625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -944,13 +1422,34 @@
       <c r="G1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="L1" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="M1" s="4"/>
+      <c r="N1" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="O1" s="4"/>
+      <c r="P1" s="4"/>
+      <c r="Q1" s="4"/>
+      <c r="R1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="S1" s="4"/>
+      <c r="T1" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="U1" s="4"/>
+      <c r="V1" s="4"/>
+      <c r="W1" s="4"/>
+      <c r="X1" s="4"/>
+    </row>
+    <row r="2" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>19</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="C2">
         <v>27.9</v>
@@ -959,21 +1458,60 @@
         <v>0</v>
       </c>
       <c r="E2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2" t="s">
         <v>8</v>
-      </c>
-      <c r="F2" t="s">
-        <v>9</v>
       </c>
       <c r="G2">
         <v>16884.923999999999</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="L2" t="s">
+        <v>7</v>
+      </c>
+      <c r="M2" t="s">
+        <v>10</v>
+      </c>
+      <c r="N2" t="s">
+        <v>8</v>
+      </c>
+      <c r="O2" t="s">
+        <v>11</v>
+      </c>
+      <c r="P2" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>14</v>
+      </c>
+      <c r="R2" t="s">
+        <v>13</v>
+      </c>
+      <c r="S2" t="s">
+        <v>9</v>
+      </c>
+      <c r="T2">
+        <v>0</v>
+      </c>
+      <c r="U2">
+        <v>1</v>
+      </c>
+      <c r="V2">
+        <v>2</v>
+      </c>
+      <c r="W2">
+        <v>3</v>
+      </c>
+      <c r="X2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>18</v>
       </c>
       <c r="B3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C3">
         <v>33.770000000000003</v>
@@ -982,21 +1520,73 @@
         <v>1</v>
       </c>
       <c r="E3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F3" t="s">
         <v>11</v>
-      </c>
-      <c r="F3" t="s">
-        <v>12</v>
       </c>
       <c r="G3">
         <v>1725.5523000000001</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="L3">
+        <f>AVERAGEIF($E$2:$E$37,L2,$G$2:$G$37)</f>
+        <v>35089.26939142857</v>
+      </c>
+      <c r="M3">
+        <f>AVERAGEIF($E$2:$E$37,M2,$G$2:$G$37)</f>
+        <v>8085.2810902231222</v>
+      </c>
+      <c r="N3">
+        <f>AVERAGEIF($F$2:$F$37, N2, $G$2:$G$37)</f>
+        <v>18482.243970359479</v>
+      </c>
+      <c r="O3">
+        <f t="shared" ref="O3:Q3" si="0">AVERAGEIF($F$2:$F$37, O2, $G$2:$G$37)</f>
+        <v>9026.2266499999987</v>
+      </c>
+      <c r="P3">
+        <f t="shared" si="0"/>
+        <v>13786.094583930482</v>
+      </c>
+      <c r="Q3">
+        <f t="shared" si="0"/>
+        <v>11237.623499999998</v>
+      </c>
+      <c r="R3">
+        <f>AVERAGEIF($B$2:$B$37, R2, $G$2:$G$37)</f>
+        <v>13591.97528875</v>
+      </c>
+      <c r="S3">
+        <f>AVERAGEIF($B$2:$B$37, S2, $G$2:$G$37)</f>
+        <v>13131.321636823526</v>
+      </c>
+      <c r="T3">
+        <f>AVERAGEIF($D$2:$D$37, T2, $G$2:$G$37)</f>
+        <v>14652.052923661768</v>
+      </c>
+      <c r="U3">
+        <f t="shared" ref="U3:X3" si="1">AVERAGEIF($D$2:$D$37, U2, $G$2:$G$37)</f>
+        <v>14639.792864803923</v>
+      </c>
+      <c r="V3">
+        <f t="shared" si="1"/>
+        <v>8292.9815666666673</v>
+      </c>
+      <c r="W3">
+        <f t="shared" si="1"/>
+        <v>8577.3671333333332</v>
+      </c>
+      <c r="X3">
+        <f t="shared" si="1"/>
+        <v>4687.7969999999996</v>
+      </c>
+    </row>
+    <row r="4" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>28</v>
       </c>
       <c r="B4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C4">
         <v>33</v>
@@ -1005,21 +1595,21 @@
         <v>3</v>
       </c>
       <c r="E4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F4" t="s">
         <v>11</v>
-      </c>
-      <c r="F4" t="s">
-        <v>12</v>
       </c>
       <c r="G4">
         <v>4449.4620000000004</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>33</v>
       </c>
       <c r="B5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C5">
         <v>22.704999999999998</v>
@@ -1028,21 +1618,21 @@
         <v>0</v>
       </c>
       <c r="E5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G5">
         <v>21984.47061</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>32</v>
       </c>
       <c r="B6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C6">
         <v>28.88</v>
@@ -1051,21 +1641,27 @@
         <v>0</v>
       </c>
       <c r="E6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G6">
         <v>3866.8552</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="I6" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="J6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="7" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>31</v>
       </c>
       <c r="B7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C7">
         <v>25.74</v>
@@ -1074,21 +1670,27 @@
         <v>0</v>
       </c>
       <c r="E7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F7" t="s">
         <v>11</v>
-      </c>
-      <c r="F7" t="s">
-        <v>12</v>
       </c>
       <c r="G7">
         <v>3756.6215999999999</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="I7" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="J7" s="3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>46</v>
       </c>
       <c r="B8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C8">
         <v>33.44</v>
@@ -1097,21 +1699,27 @@
         <v>1</v>
       </c>
       <c r="E8" t="s">
+        <v>10</v>
+      </c>
+      <c r="F8" t="s">
         <v>11</v>
-      </c>
-      <c r="F8" t="s">
-        <v>12</v>
       </c>
       <c r="G8">
         <v>8240.5895999999993</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="I8" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="J8" s="3">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="9" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>37</v>
       </c>
       <c r="B9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C9">
         <v>27.74</v>
@@ -1120,21 +1728,25 @@
         <v>3</v>
       </c>
       <c r="E9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G9">
         <v>7281.5056000000004</v>
       </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="I9" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J9" s="3"/>
+    </row>
+    <row r="10" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>37</v>
       </c>
       <c r="B10" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C10">
         <v>29.83</v>
@@ -1143,21 +1755,27 @@
         <v>2</v>
       </c>
       <c r="E10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G10">
         <v>6406.4107000000004</v>
       </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="I10" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="J10" s="3">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="11" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>60</v>
       </c>
       <c r="B11" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C11">
         <v>25.84</v>
@@ -1166,21 +1784,21 @@
         <v>0</v>
       </c>
       <c r="E11" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G11">
         <v>28923.136920000001</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>25</v>
       </c>
       <c r="B12" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C12">
         <v>26.22</v>
@@ -1189,21 +1807,21 @@
         <v>0</v>
       </c>
       <c r="E12" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F12" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G12">
         <v>2721.3208</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>62</v>
       </c>
       <c r="B13" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C13">
         <v>26.29</v>
@@ -1212,21 +1830,27 @@
         <v>0</v>
       </c>
       <c r="E13" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F13" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G13">
         <v>27808.7251</v>
       </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="I13" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="J13" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>23</v>
       </c>
       <c r="B14" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C14">
         <v>34.4</v>
@@ -1235,21 +1859,27 @@
         <v>0</v>
       </c>
       <c r="E14" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F14" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G14">
         <v>1826.8430000000001</v>
       </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="I14" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="J14" s="3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>56</v>
       </c>
       <c r="B15" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C15">
         <v>39.82</v>
@@ -1258,21 +1888,27 @@
         <v>0</v>
       </c>
       <c r="E15" t="s">
+        <v>10</v>
+      </c>
+      <c r="F15" t="s">
         <v>11</v>
-      </c>
-      <c r="F15" t="s">
-        <v>12</v>
       </c>
       <c r="G15">
         <v>11090.7178</v>
       </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="I15" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="J15" s="3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>27</v>
       </c>
       <c r="B16" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C16">
         <v>42.13</v>
@@ -1281,18 +1917,27 @@
         <v>0</v>
       </c>
       <c r="E16" t="s">
-        <v>8</v>
+        <v>7</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>12</v>
       </c>
       <c r="G16">
         <v>39611.757700000002</v>
       </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="I16" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="J16" s="3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>19</v>
       </c>
       <c r="B17" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C17">
         <v>24.6</v>
@@ -1301,21 +1946,27 @@
         <v>1</v>
       </c>
       <c r="E17" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F17" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G17">
         <v>1837.2370000000001</v>
       </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="I17" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J17" s="3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>52</v>
       </c>
       <c r="B18" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C18">
         <v>30.78</v>
@@ -1324,21 +1975,25 @@
         <v>1</v>
       </c>
       <c r="E18" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F18" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G18">
         <v>10797.3362</v>
       </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="I18" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J18" s="3"/>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>23</v>
       </c>
       <c r="B19" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C19">
         <v>23.844999999999999</v>
@@ -1347,21 +2002,27 @@
         <v>0</v>
       </c>
       <c r="E19" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F19" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G19">
         <v>2395.17155</v>
       </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="I19" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="J19" s="3">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>56</v>
       </c>
       <c r="B20" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C20">
         <v>40.299999999999997</v>
@@ -1370,21 +2031,21 @@
         <v>0</v>
       </c>
       <c r="E20" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F20" t="s">
-        <v>9</v>
-      </c>
-      <c r="G20" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+        <v>8</v>
+      </c>
+      <c r="G20">
+        <v>13336.0565932353</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>30</v>
       </c>
       <c r="B21" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C21">
         <v>35.299999999999997</v>
@@ -1393,21 +2054,21 @@
         <v>0</v>
       </c>
       <c r="E21" t="s">
+        <v>7</v>
+      </c>
+      <c r="F21" t="s">
         <v>8</v>
-      </c>
-      <c r="F21" t="s">
-        <v>9</v>
       </c>
       <c r="G21">
         <v>36837.466999999997</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>60</v>
       </c>
       <c r="B22" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C22">
         <v>36.005000000000003</v>
@@ -1416,21 +2077,21 @@
         <v>0</v>
       </c>
       <c r="E22" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F22" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G22">
         <v>13228.846949999999</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>30</v>
       </c>
       <c r="B23" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C23">
         <v>32.4</v>
@@ -1439,21 +2100,21 @@
         <v>1</v>
       </c>
       <c r="E23" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F23" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G23">
         <v>4149.7359999999999</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>18</v>
       </c>
       <c r="B24" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C24">
         <v>34.1</v>
@@ -1462,21 +2123,21 @@
         <v>0</v>
       </c>
       <c r="E24" t="s">
+        <v>10</v>
+      </c>
+      <c r="F24" t="s">
         <v>11</v>
-      </c>
-      <c r="F24" t="s">
-        <v>12</v>
       </c>
       <c r="G24">
         <v>1137.011</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>34</v>
       </c>
       <c r="B25" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C25">
         <v>31.92</v>
@@ -1485,21 +2146,21 @@
         <v>1</v>
       </c>
       <c r="E25" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F25" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G25">
         <v>37701.876799999998</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>37</v>
       </c>
       <c r="B26" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C26">
         <v>28.024999999999999</v>
@@ -1508,21 +2169,21 @@
         <v>2</v>
       </c>
       <c r="E26" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F26" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G26">
         <v>6203.90175</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>59</v>
       </c>
       <c r="B27" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C27">
         <v>27.72</v>
@@ -1531,21 +2192,21 @@
         <v>3</v>
       </c>
       <c r="E27" t="s">
+        <v>10</v>
+      </c>
+      <c r="F27" t="s">
         <v>11</v>
-      </c>
-      <c r="F27" t="s">
-        <v>12</v>
       </c>
       <c r="G27">
         <v>14001.1338</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>63</v>
       </c>
       <c r="B28" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C28">
         <v>23.085000000000001</v>
@@ -1554,21 +2215,21 @@
         <v>0</v>
       </c>
       <c r="E28" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F28" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G28">
         <v>14451.835150000001</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>55</v>
       </c>
       <c r="B29" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C29">
         <v>32.774999999999999</v>
@@ -1577,21 +2238,21 @@
         <v>2</v>
       </c>
       <c r="E29" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F29" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G29">
         <v>12268.632250000001</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>23</v>
       </c>
       <c r="B30" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C30">
         <v>17.385000000000002</v>
@@ -1600,29 +2261,44 @@
         <v>1</v>
       </c>
       <c r="E30" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F30" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G30">
         <v>2775.1921499999999</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>31</v>
       </c>
       <c r="B31" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
+        <v>9</v>
+      </c>
+      <c r="C31">
+        <v>30.045571428571424</v>
+      </c>
+      <c r="D31">
+        <v>1</v>
+      </c>
+      <c r="E31" t="s">
+        <v>10</v>
+      </c>
+      <c r="F31" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G31">
+        <v>13336.0565932353</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>22</v>
       </c>
       <c r="B32" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C32">
         <v>35.6</v>
@@ -1631,21 +2307,21 @@
         <v>0</v>
       </c>
       <c r="E32" t="s">
+        <v>7</v>
+      </c>
+      <c r="F32" t="s">
         <v>8</v>
-      </c>
-      <c r="F32" t="s">
-        <v>9</v>
       </c>
       <c r="G32">
         <v>35585.576000000001</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>18</v>
       </c>
       <c r="B33" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C33">
         <v>26.315000000000001</v>
@@ -1654,21 +2330,21 @@
         <v>0</v>
       </c>
       <c r="E33" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F33" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G33">
         <v>2198.1898500000002</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>19</v>
       </c>
       <c r="B34" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C34">
         <v>28.6</v>
@@ -1677,21 +2353,21 @@
         <v>5</v>
       </c>
       <c r="E34" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F34" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G34">
         <v>4687.7969999999996</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>63</v>
       </c>
       <c r="B35" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C35">
         <v>28.31</v>
@@ -1700,21 +2376,21 @@
         <v>0</v>
       </c>
       <c r="E35" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F35" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G35">
         <v>13770.097900000001</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>28</v>
       </c>
       <c r="B36" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C36">
         <v>36.4</v>
@@ -1723,21 +2399,21 @@
         <v>1</v>
       </c>
       <c r="E36" t="s">
+        <v>7</v>
+      </c>
+      <c r="F36" t="s">
         <v>8</v>
-      </c>
-      <c r="F36" t="s">
-        <v>9</v>
       </c>
       <c r="G36">
         <v>51194.559139999998</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>19</v>
       </c>
       <c r="B37" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C37">
         <v>20.425000000000001</v>
@@ -1746,16 +2422,88 @@
         <v>0</v>
       </c>
       <c r="E37" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F37" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G37">
         <v>1625.4337499999999</v>
       </c>
     </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A39">
+        <f>AVERAGE(A2:A37)</f>
+        <v>35.916666666666664</v>
+      </c>
+      <c r="C39">
+        <f t="shared" ref="C39:G39" si="2">AVERAGE(C2:C37)</f>
+        <v>30.045571428571424</v>
+      </c>
+      <c r="D39">
+        <f t="shared" si="2"/>
+        <v>0.80555555555555558</v>
+      </c>
+      <c r="G39">
+        <f t="shared" si="2"/>
+        <v>13336.056593235298</v>
+      </c>
+      <c r="H39" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A40">
+        <f>MAX(A2:A37)</f>
+        <v>63</v>
+      </c>
+      <c r="C40">
+        <f t="shared" ref="C40:G40" si="3">MAX(C2:C37)</f>
+        <v>42.13</v>
+      </c>
+      <c r="D40">
+        <f t="shared" si="3"/>
+        <v>5</v>
+      </c>
+      <c r="G40">
+        <f t="shared" si="3"/>
+        <v>51194.559139999998</v>
+      </c>
+      <c r="H40" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A41">
+        <f>MIN(A2:A37)</f>
+        <v>18</v>
+      </c>
+      <c r="C41">
+        <f t="shared" ref="C41:G41" si="4">MIN(C2:C37)</f>
+        <v>17.385000000000002</v>
+      </c>
+      <c r="D41">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="G41">
+        <f t="shared" si="4"/>
+        <v>1137.011</v>
+      </c>
+      <c r="H41" t="s">
+        <v>17</v>
+      </c>
+    </row>
   </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="L1:M1"/>
+    <mergeCell ref="N1:Q1"/>
+    <mergeCell ref="R1:S1"/>
+    <mergeCell ref="T1:X1"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId3"/>
+  </tableParts>
 </worksheet>
 </file>